--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/REFrameworkNET5/StudioTemplates/REFramework/contentFiles/any/any/pt2/VisualBasic/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnjst\Documents\UiPath\001_ACME\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C2167D-D416-4DB0-870E-20A3038E5E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -160,13 +160,49 @@
   </si>
   <si>
     <t>ProcessABCQueue</t>
+  </si>
+  <si>
+    <t>ACME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ACME_URL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ACME_ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ACME_PW</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dnjstjdgus03@naver.com</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1q2w#E$R%T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Hash_URL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.sha1-online.com/</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -190,16 +226,36 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -207,23 +263,170 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -239,7 +442,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -537,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -604,7 +807,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="29.4" thickBot="1">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -615,12 +818,50 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" thickTop="1">
+      <c r="A6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" thickTop="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1609,9 +1850,17 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{1A63BC12-4140-4505-A8E8-DD04CCC6109F}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{7AB573C8-AA55-4528-9C07-C75F36D40FE6}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{D1B2A405-9A1F-4F4F-946A-2083C8A606B1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2782,7 +3031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
